--- a/Data/Data_Table.xlsx
+++ b/Data/Data_Table.xlsx
@@ -9,26 +9,39 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18735" windowHeight="2280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18735" windowHeight="2280" firstSheet="23" activeTab="29"/>
   </bookViews>
   <sheets>
-    <sheet name="LD_CUSTOMER" sheetId="1" r:id="rId1"/>
-    <sheet name="LD_USER" sheetId="2" r:id="rId2"/>
-    <sheet name="CODE_SET" sheetId="3" r:id="rId3"/>
-    <sheet name="CODE_VALUE" sheetId="4" r:id="rId4"/>
-    <sheet name="LD_SO" sheetId="5" r:id="rId5"/>
-    <sheet name="LD_SO_DETAIL" sheetId="6" r:id="rId6"/>
-    <sheet name="LD_SERVICE" sheetId="7" r:id="rId7"/>
-    <sheet name="LD_SERVICE_DETAIL" sheetId="8" r:id="rId8"/>
-    <sheet name="LD_PROMOTION" sheetId="9" r:id="rId9"/>
-    <sheet name="LD_PROMOTION_DETAIL" sheetId="10" r:id="rId10"/>
-    <sheet name="LD_ROLE" sheetId="11" r:id="rId11"/>
-    <sheet name="LD_CHAT" sheetId="12" r:id="rId12"/>
-    <sheet name="LD_WASH_MACHINE" sheetId="13" r:id="rId13"/>
-    <sheet name="LD_WASH_MACHINE_DETAIL" sheetId="14" r:id="rId14"/>
-    <sheet name="LD_ADDRESS" sheetId="15" r:id="rId15"/>
-    <sheet name="LD_RATING" sheetId="16" r:id="rId16"/>
-    <sheet name="LD_COMMENT" sheetId="17" r:id="rId17"/>
+    <sheet name="KHACH_HANG" sheetId="1" r:id="rId1"/>
+    <sheet name="NGAY" sheetId="3" r:id="rId2"/>
+    <sheet name="LOAI_SAN_PHAM" sheetId="4" r:id="rId3"/>
+    <sheet name="LOAI_DICH_VU" sheetId="5" r:id="rId4"/>
+    <sheet name="DON_VI_TINH" sheetId="6" r:id="rId5"/>
+    <sheet name="CHAT_LIEU" sheetId="7" r:id="rId6"/>
+    <sheet name="NHAN_HIEU_SAN_PHAM" sheetId="8" r:id="rId7"/>
+    <sheet name="NHOM_MAU" sheetId="9" r:id="rId8"/>
+    <sheet name="MAU" sheetId="10" r:id="rId9"/>
+    <sheet name="DON_GIA_SAN_PHAM" sheetId="11" r:id="rId10"/>
+    <sheet name="CHI_TIET_DON_HANG" sheetId="12" r:id="rId11"/>
+    <sheet name="CHI_TIET_BIEN_NHAN" sheetId="13" r:id="rId12"/>
+    <sheet name="CHI_TIET_HOA_DON" sheetId="14" r:id="rId13"/>
+    <sheet name="CHI_TIET_TUI_GIAT" sheetId="15" r:id="rId14"/>
+    <sheet name="DON_HANG" sheetId="16" r:id="rId15"/>
+    <sheet name="HOA_DON" sheetId="17" r:id="rId16"/>
+    <sheet name="BIEN_NHAN" sheetId="18" r:id="rId17"/>
+    <sheet name="TUI_GIAT" sheetId="19" r:id="rId18"/>
+    <sheet name="NHAN_VIEN" sheetId="20" r:id="rId19"/>
+    <sheet name="LOAI_NHAN_VIEN" sheetId="21" r:id="rId20"/>
+    <sheet name="CHI_NHANH_CUA_HANG" sheetId="22" r:id="rId21"/>
+    <sheet name="KHUYEN_MAI" sheetId="23" r:id="rId22"/>
+    <sheet name="KHUYENMAI_CNCH" sheetId="24" r:id="rId23"/>
+    <sheet name="LOAIDV_CNCH" sheetId="25" r:id="rId24"/>
+    <sheet name="MAY_GIAT" sheetId="26" r:id="rId25"/>
+    <sheet name="MAY_SAY" sheetId="27" r:id="rId26"/>
+    <sheet name="CUA_HANG" sheetId="28" r:id="rId27"/>
+    <sheet name="GIAT" sheetId="29" r:id="rId28"/>
+    <sheet name="SAY" sheetId="30" r:id="rId29"/>
+    <sheet name="BIENNHAN_TUIGIAT" sheetId="31" r:id="rId30"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="207">
   <si>
     <t>Table Name</t>
   </si>
@@ -69,61 +82,657 @@
     <t>Condition</t>
   </si>
   <si>
-    <t>LD_CUSTOMER</t>
-  </si>
-  <si>
-    <t>LD_USER</t>
-  </si>
-  <si>
-    <t>CODE_SET</t>
-  </si>
-  <si>
-    <t>CODE_VALUE</t>
-  </si>
-  <si>
-    <t>LD_SO</t>
-  </si>
-  <si>
-    <t>LD_SO_DETAIL</t>
-  </si>
-  <si>
-    <t>LD_SERVICE</t>
-  </si>
-  <si>
-    <t>LD_SERVICE_DETAIL</t>
-  </si>
-  <si>
-    <t>LD_PROMOTION</t>
-  </si>
-  <si>
-    <t>LD_PROMOTION_DETAIL</t>
-  </si>
-  <si>
-    <t>LD_ROLE</t>
-  </si>
-  <si>
-    <t>LD_CHAT</t>
-  </si>
-  <si>
-    <t>LD_WASH_MACHINE</t>
-  </si>
-  <si>
-    <t>LD_WASH_MACHINE_DETAIL</t>
-  </si>
-  <si>
-    <t>LD_ADDRESS</t>
-  </si>
-  <si>
-    <t>LD_RATING</t>
-  </si>
-  <si>
-    <t>LD_COMMENT</t>
-  </si>
-  <si>
-    <t>CUSTOMER_ID</t>
-  </si>
-  <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>KHACH_HANG</t>
+  </si>
+  <si>
+    <t>ID_KH</t>
+  </si>
+  <si>
+    <t>TEN_KH</t>
+  </si>
+  <si>
+    <t>EMAIL_KH</t>
+  </si>
+  <si>
+    <t>USERNAME_KH</t>
+  </si>
+  <si>
+    <t>PASSWORD_KH</t>
+  </si>
+  <si>
+    <t>GIOI_TINH_KH</t>
+  </si>
+  <si>
+    <t>DIA_CHI_KH</t>
+  </si>
+  <si>
+    <t>SDT_KH</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>HASHCODE</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>VARIABLE MULTIBYTE</t>
+  </si>
+  <si>
+    <t>VARIABLE CHARACTERS</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>NGAY</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>LOAI_SAN_PHAM</t>
+  </si>
+  <si>
+    <t>ID_LSP</t>
+  </si>
+  <si>
+    <t>TEN_LSP</t>
+  </si>
+  <si>
+    <t>LOAI_DICH_VU</t>
+  </si>
+  <si>
+    <t>ID_LDV</t>
+  </si>
+  <si>
+    <t>TEN_LDV</t>
+  </si>
+  <si>
+    <t>MO_TA</t>
+  </si>
+  <si>
+    <t>DON_VI_TINH</t>
+  </si>
+  <si>
+    <t>ID_DVT</t>
+  </si>
+  <si>
+    <t>TEN_DVT</t>
+  </si>
+  <si>
+    <t>CHAT_LIEU</t>
+  </si>
+  <si>
+    <t>ID_CL</t>
+  </si>
+  <si>
+    <t>TEN_CL</t>
+  </si>
+  <si>
+    <t>NHAN_HIEU_SAN_PHAM</t>
+  </si>
+  <si>
+    <t>ID_NHSP</t>
+  </si>
+  <si>
+    <t>TEN_NHSP</t>
+  </si>
+  <si>
+    <t>NHOM_MAU</t>
+  </si>
+  <si>
+    <t>ID_NM</t>
+  </si>
+  <si>
+    <t>TEN_NM</t>
+  </si>
+  <si>
+    <t>MAU</t>
+  </si>
+  <si>
+    <t>ID_MAU</t>
+  </si>
+  <si>
+    <t>TEN_MAU</t>
+  </si>
+  <si>
+    <t>DON_GIA_SAN_PHAM</t>
+  </si>
+  <si>
+    <t>DON_GIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LONG </t>
+  </si>
+  <si>
+    <t>CHI_TIET_DON_HANG</t>
+  </si>
+  <si>
+    <t>ID_DH</t>
+  </si>
+  <si>
+    <t>SO_LUONG</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>CHI_TIET_BIEN_NHAN</t>
+  </si>
+  <si>
+    <t>ID_BN</t>
+  </si>
+  <si>
+    <t>CHI_TIET_HOA_DON</t>
+  </si>
+  <si>
+    <t>ID_HD</t>
+  </si>
+  <si>
+    <t>CHI_TIET_TUI_GIAT</t>
+  </si>
+  <si>
+    <t>ID_TG</t>
+  </si>
+  <si>
+    <t>DON_HANG</t>
+  </si>
+  <si>
+    <t>NGAY_LAP</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>HOA_DON</t>
+  </si>
+  <si>
+    <t>ID_NV</t>
+  </si>
+  <si>
+    <t>NGAY_NHAN</t>
+  </si>
+  <si>
+    <t>BIEN_NHAN</t>
+  </si>
+  <si>
+    <t>TUI_GIAT</t>
+  </si>
+  <si>
+    <t>NHAN_VIEN</t>
+  </si>
+  <si>
+    <t>TEN_NV</t>
+  </si>
+  <si>
+    <t>EMAIL_NV</t>
+  </si>
+  <si>
+    <t>USERNAME_NV</t>
+  </si>
+  <si>
+    <t>PASSWORD_NV</t>
+  </si>
+  <si>
+    <t>GIOI_TINH_NV</t>
+  </si>
+  <si>
+    <t>DIA_CHI_NV</t>
+  </si>
+  <si>
+    <t>SDT_NV</t>
+  </si>
+  <si>
+    <t>ID_LNV</t>
+  </si>
+  <si>
+    <t>ID_CNCH</t>
+  </si>
+  <si>
+    <t>LOAI_NHAN_VIEN</t>
+  </si>
+  <si>
+    <t>TEN_LNV</t>
+  </si>
+  <si>
+    <t>CHI_NHANH_CUA_HANG</t>
+  </si>
+  <si>
+    <t>TEN_CNCH</t>
+  </si>
+  <si>
+    <t>ID_CH</t>
+  </si>
+  <si>
+    <t>DIA_CHI_CN</t>
+  </si>
+  <si>
+    <t>KHUYEN_MAI</t>
+  </si>
+  <si>
+    <t>ID_KM</t>
+  </si>
+  <si>
+    <t>TEN_KM</t>
+  </si>
+  <si>
+    <t>GIAMGIA</t>
+  </si>
+  <si>
+    <t>NGAYBT</t>
+  </si>
+  <si>
+    <t>NGAYKT</t>
+  </si>
+  <si>
+    <t>KHUYENMAI_CNCH</t>
+  </si>
+  <si>
+    <t>LOAIDV_CNCH</t>
+  </si>
+  <si>
+    <t>MAY_GIAT</t>
+  </si>
+  <si>
+    <t>ID_MG</t>
+  </si>
+  <si>
+    <t>MAY_SAY</t>
+  </si>
+  <si>
+    <t>ID_MS</t>
+  </si>
+  <si>
+    <t>CUA_HANG</t>
+  </si>
+  <si>
+    <t>TEN_CH</t>
+  </si>
+  <si>
+    <t>GIAT</t>
+  </si>
+  <si>
+    <t>SAY</t>
+  </si>
+  <si>
+    <t>ID TỰ TĂNG</t>
+  </si>
+  <si>
+    <t>TÊN KHÁCH HÀNG</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>Định dang email có chứa @ và tên miền
+trong chuỗi nhập vào</t>
+  </si>
+  <si>
+    <t>TÊN TÀI KHOẢN</t>
+  </si>
+  <si>
+    <t>MẬT KHẨU</t>
+  </si>
+  <si>
+    <t>ĐƯỢC MÃ HÓA(HASHCODE)</t>
+  </si>
+  <si>
+    <t>GIỚI TÍNH</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>ĐỊA CHỈ</t>
+  </si>
+  <si>
+    <t>SỐ ĐIỆN THOẠI</t>
+  </si>
+  <si>
+    <t>TRẠNG THÁI TÀI KHOẢN</t>
+  </si>
+  <si>
+    <t>ĐOẠN MÃ ĐỂ BĂM</t>
+  </si>
+  <si>
+    <t>0: ACTIVE
+1: INACTIVE</t>
+  </si>
+  <si>
+    <t>NGÀY</t>
+  </si>
+  <si>
+    <t>TÊN LOẠI SẢN PHẨM</t>
+  </si>
+  <si>
+    <t>MÔ TẢ</t>
+  </si>
+  <si>
+    <t>TÊN ĐƠN VỊ TÍNH</t>
+  </si>
+  <si>
+    <t>0: KG
+1: CÁI</t>
+  </si>
+  <si>
+    <t>TÊN CHẤT LIỆU</t>
+  </si>
+  <si>
+    <t>TÊN NHÃN HIỆU SẢN PHẨM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TÊN NHÓM MÀU </t>
+  </si>
+  <si>
+    <t>TÊN MÀU</t>
+  </si>
+  <si>
+    <t>KHÓA NGOẠI (MAU, NHOM_MAU)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(CHI_TIET_BIEN_NHAN, BIEN_NHAN)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(CHI_TIET_BIEN_NHAN, LOAI_DICH_VU)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(CHI_TIET_BIEN_NHAN, DON_VI_TINH)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(CHI_TIET_BIEN_NHAN, NHAN_HIEU_SAN_PHAM)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(CHI_TIET_BIEN_NHAN, MAU)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(CHI_TIET_BIEN_NHAN, LOAI_SAN_PHAM)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(CHI_TIET_BIEN_NHAN, CHAT_LIEU)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(CHI_TIET_DON_HANG, DON_HANG)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(CHI_TIET_DON_HANG, LOAI_DICH_VU)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(CHI_TIET_DON_HANG, DON_VI_TINH)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(CHI_TIET_DON_HANG, NHAN_HIEU_SAN_PHAM)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(CHI_TIET_DON_HANG, MAU)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(CHI_TIET_DON_HANG, LOAI_SAN_PHAM)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(CHI_TIET_DON_HANG, CHAT_LIEU)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(DON_GIA_SAN_PHAM, LOAI_SAN_PHAM)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(DON_GIA_SAN_PHAM, LOAI_DICH_VU)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(DON_GIA_SAN_PHAM, CHAT_LIEU)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(DON_GIA_SAN_PHAM, DON_VI_TINH)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(DON_GIA_SAN_PHAM, NGAY)</t>
+  </si>
+  <si>
+    <t># ID_NM</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH
+(CHI_TIET_HOA_DON, HOA_DON)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH
+(CHI_TIET_HOA_DON, LOAI_DICH_VU)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH
+(CHI_TIET_HOA_DON, DON_VI_TINH)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH
+(CHI_TIET_HOA_DON, NHAN_HIEU_SAN_PHAM)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH
+(CHI_TIET_HOA_DON, MAU)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH
+(CHI_TIET_HOA_DON, LOAI_SAN_PHAM)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH
+(CHI_TIET_HOA_DON, CHAT_LIEU)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(CHI_TIET_TUI_GIAT, TUI_GIAT)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(CHI_TIET_TUI_GIAT, LOAI_DICH_VU)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(CHI_TIET_TUI_GIAT, DON_VI_TINH)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(CHI_TIET_TUI_GIAT, NHAN_HIEU_SAN_PHAM)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(CHI_TIET_TUI_GIAT, MAU)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(CHI_TIET_TUI_GIAT, LOAI_SAN_PHAM)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH 
+(CHI_TIET_TUI_GIAT, CHAT_LIEU)</t>
+  </si>
+  <si>
+    <t>KHÓA NGOẠI 
+(DON_HANG, KHACH_HANG)</t>
+  </si>
+  <si>
+    <t># ID_KH</t>
+  </si>
+  <si>
+    <t>KHÓA NGOẠI 
+(BIEN_NHAN, HOA_DON)</t>
+  </si>
+  <si>
+    <t>KHÓA NGOẠI 
+(NHAN_VIEN, HOA_DON)</t>
+  </si>
+  <si>
+    <t># ID_BN</t>
+  </si>
+  <si>
+    <t># ID_NGUOILAP</t>
+  </si>
+  <si>
+    <t># ID_NGUOIGIAO</t>
+  </si>
+  <si>
+    <t>ID TỰ ĐỘNG</t>
+  </si>
+  <si>
+    <t>KHÓA NGOẠI
+(BIEN_NHAN, DON_HANG)</t>
+  </si>
+  <si>
+    <t>KHÓA NGOẠI
+(BIEN_NHAN, NHAN_VIEN)</t>
+  </si>
+  <si>
+    <t># ID_NV</t>
+  </si>
+  <si>
+    <t># ID_DH</t>
+  </si>
+  <si>
+    <t>KHÓA NGOẠI
+(TUI_GIAT, NHAN_VIEN)</t>
+  </si>
+  <si>
+    <t>KHÓA NGOẠI
+(TUI_GIAT, DON_HANG)</t>
+  </si>
+  <si>
+    <t>KHÓA NGOẠI
+(NHAN_VIEN, LOAI_NHAN_VIEN)</t>
+  </si>
+  <si>
+    <t>KHÓA NGOẠI
+(NHAN_VIEN, CHI_NHANH_CUA_HANG)</t>
+  </si>
+  <si>
+    <t>TÊN LOẠI NHÂN VIÊN</t>
+  </si>
+  <si>
+    <t>TÊN CHI NHÁNH CỬA HÀNG</t>
+  </si>
+  <si>
+    <t>KHÓA NGOẠI
+(CHI_NHANH_CUA_HANG, CUA_HANG)</t>
+  </si>
+  <si>
+    <t>ĐỊA CHỈ CHI NHÁNH CỬA HÀNG</t>
+  </si>
+  <si>
+    <t>TÊN KKHUYẾN MÃI</t>
+  </si>
+  <si>
+    <t>PHẦN TRĂM GIẢM GIÁ</t>
+  </si>
+  <si>
+    <t>NGÀY BẮT ĐẦU</t>
+  </si>
+  <si>
+    <t>NGÀY KẾT THÚC</t>
+  </si>
+  <si>
+    <t># ID_LNV</t>
+  </si>
+  <si>
+    <t># ID_CNCH</t>
+  </si>
+  <si>
+    <t># ID_CH</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH
+(KHUYENMAI_CNCH, KHUYEN_MAI)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH
+(KHUYENMAI_CNCH, CHI_NHANH_CUA_HANG)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH
+(LOAI_DICH_VU, CHI_NHANH_CUA_HANG)</t>
+  </si>
+  <si>
+    <t>KHÓA NGOẠI
+(MAY_GIAT, CHI_NHANH_CUA_HANG)</t>
+  </si>
+  <si>
+    <t>KHÓA NGOẠI 
+(CHI_NHANH_CUA_HANG, MAY_SAY)</t>
+  </si>
+  <si>
+    <t>TÊN CỬA HÀNG</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH
+(TUI_GIAT, GIAT)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH
+(NGAY, GIAT)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH
+(MAY_GIAT, GIAT)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH
+(TUI_SAY, SAY)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH
+(MAY_SAY, SAY)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH
+(NGAY, SAY)</t>
+  </si>
+  <si>
+    <t>TUIGIAT_BIENNHAN</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH
+(TUIGIAT_BIENNHAN, TUI_GIAT)</t>
+  </si>
+  <si>
+    <t>KHÓA CHÍNH
+(TUIGIAT_BIENNHAN, BIEN_NHAN)</t>
+  </si>
+  <si>
+    <t>ĐƠN GIÁ &gt; 0</t>
+  </si>
+  <si>
+    <t>SỐ LƯỢNG &gt; 0</t>
+  </si>
+  <si>
+    <t>SỐ LƯƠNG &gt; 0</t>
   </si>
 </sst>
 </file>
@@ -137,22 +746,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="163"/>
     </font>
     <font>
       <sz val="11"/>
@@ -184,6 +777,22 @@
       <family val="1"/>
       <charset val="163"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -199,7 +808,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -237,37 +846,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,127 +1217,403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9" style="5" customWidth="1"/>
-    <col min="5" max="5" width="37" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="5"/>
-    <col min="7" max="7" width="31.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="39" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>9</v>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="A4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="12">
+        <v>19</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="12">
+        <v>200</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="12">
+        <v>4000</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="12">
+        <v>4000</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="12">
+        <v>4000</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="12">
+        <v>4000</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="12">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="12">
+        <v>4000</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="17" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>19</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -678,56 +1623,170 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="17" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>19</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -737,56 +1796,167 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="17" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>19</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -796,56 +1966,167 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="17" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>19</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -855,56 +2136,167 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>22</v>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="17" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>19</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -914,115 +2306,225 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="17" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>24</v>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="17" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>19</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1032,56 +2534,451 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>25</v>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="17" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1">
+        <v>19</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1091,56 +2988,1073 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="17" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1150,56 +4064,178 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="17" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1209,56 +4245,106 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="17" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1268,56 +4354,92 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="17" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1327,56 +4449,89 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="17" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1386,56 +4541,89 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="17" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1445,56 +4633,89 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="17" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1504,56 +4725,103 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="31.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="17" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
